--- a/data/trans_camb/PLURIPATOLOGIA_DISC-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA_DISC-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,95</t>
+          <t>2,4; 4,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,18</t>
+          <t>1,81; 4,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 11,22</t>
+          <t>6,87; 11,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,44; 10,66</t>
+          <t>7,68; 10,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 10,3</t>
+          <t>6,59; 10,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,68; 20,39</t>
+          <t>15,53; 20,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 7,8</t>
+          <t>5,79; 7,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 7,2</t>
+          <t>4,77; 7,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,52; 16,34</t>
+          <t>12,73; 16,3</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,85</t>
+          <t>0,21; 0,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,95</t>
+          <t>0,21; 1,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,86</t>
+          <t>1,62; 2,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,13</t>
+          <t>0,93; 2,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,78</t>
+          <t>1,35; 2,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 4,33</t>
+          <t>2,86; 4,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,27</t>
+          <t>0,63; 1,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,63</t>
+          <t>0,89; 1,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,37</t>
+          <t>2,44; 3,4</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,0; 1,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,88</t>
+          <t>0,0; 1,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,36</t>
+          <t>0,18; 1,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,6</t>
+          <t>0,62; 3,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,26</t>
+          <t>0,37; 2,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,15</t>
+          <t>1,02; 3,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,19</t>
+          <t>0,41; 2,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,62</t>
+          <t>0,37; 1,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,83</t>
+          <t>0,73; 1,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,84</t>
+          <t>0,96; 1,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,44</t>
+          <t>0,69; 1,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,45; 3,53</t>
+          <t>2,46; 3,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,0</t>
+          <t>3,73; 5,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 4,35</t>
+          <t>2,94; 4,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,53; 7,17</t>
+          <t>5,52; 7,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,31</t>
+          <t>2,47; 3,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 2,77</t>
+          <t>1,98; 2,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,29; 5,28</t>
+          <t>4,3; 5,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PLURIPATOLOGIA_DISC-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA_DISC-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,81</t>
+          <t>2,55; 4,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,03</t>
+          <t>1,72; 3,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,68; 10,89</t>
+          <t>7,72; 10,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,78</t>
+          <t>6,59; 10,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,79; 7,86</t>
+          <t>5,74; 7,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 7,15</t>
+          <t>4,81; 7,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,9</t>
+          <t>0,21; 0,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,0</t>
+          <t>0,24; 0,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,06</t>
+          <t>0,89; 2,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,7</t>
+          <t>1,41; 2,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,23</t>
+          <t>0,62; 1,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,67</t>
+          <t>0,93; 1,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,0; 1,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,71</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,5</t>
+          <t>0,64; 3,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,39</t>
+          <t>0,37; 2,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,17</t>
+          <t>0,44; 2,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,57</t>
+          <t>0,36; 1,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,78</t>
+          <t>0,96; 1,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,39</t>
+          <t>0,7; 1,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,17</t>
+          <t>3,68; 5,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,33</t>
+          <t>2,99; 4,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,3</t>
+          <t>2,47; 3,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,98; 2,73</t>
+          <t>1,99; 2,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">

--- a/data/trans_camb/PLURIPATOLOGIA_DISC-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA_DISC-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,94</t>
+          <t>2,56; 4,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,88</t>
+          <t>1,72; 4,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,87; 11,49</t>
+          <t>6,92; 11,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 10,82</t>
+          <t>7,44; 10,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,47</t>
+          <t>6,49; 10,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,53; 20,46</t>
+          <t>15,68; 20,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 7,8</t>
+          <t>5,72; 7,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,09</t>
+          <t>4,84; 7,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,73; 16,3</t>
+          <t>12,52; 16,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,83</t>
+          <t>0,21; 0,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,95</t>
+          <t>0,22; 0,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,86</t>
+          <t>1,61; 2,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,03</t>
+          <t>0,92; 2,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,76</t>
+          <t>1,46; 2,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 4,29</t>
+          <t>2,8; 4,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,28</t>
+          <t>0,63; 1,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,65</t>
+          <t>0,9; 1,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,4</t>
+          <t>2,44; 3,37</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,8</t>
+          <t>0,0; 1,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,3</t>
+          <t>0,19; 1,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,6</t>
+          <t>0,72; 3,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,21</t>
+          <t>0,45; 2,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,13</t>
+          <t>0,97; 3,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,11</t>
+          <t>0,45; 2,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,59</t>
+          <t>0,37; 1,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,93</t>
+          <t>0,68; 1,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,76</t>
+          <t>0,99; 1,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,42</t>
+          <t>0,71; 1,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,6</t>
+          <t>2,45; 3,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,06</t>
+          <t>3,65; 5,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 4,39</t>
+          <t>3,0; 4,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,52; 7,09</t>
+          <t>5,53; 7,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,27</t>
+          <t>2,47; 3,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,73</t>
+          <t>1,97; 2,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 5,27</t>
+          <t>4,29; 5,28</t>
         </is>
       </c>
     </row>
